--- a/Excel/TI/Mon_TI_2024_03_22.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_22.xlsx
@@ -644,16 +644,16 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>32.2</v>
+        <v>37.4</v>
       </c>
       <c r="G2" t="n">
-        <v>36.2</v>
+        <v>37.7</v>
       </c>
       <c r="H2" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -665,30 +665,30 @@
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
+        <v>57</v>
+      </c>
+      <c r="O2" t="n">
         <v>44</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>20</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>32</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>34</v>
       </c>
-      <c r="R2" t="n">
-        <v>31</v>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>-1.8</v>
+        <v>-2.1</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -779,57 +779,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Jaylen Brown</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="G3" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="H3" t="n">
-        <v>33.5</v>
+        <v>32</v>
       </c>
       <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
       <c r="N3" t="n">
-        <v>33</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="O3" t="n">
+        <v>45</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q3" t="n">
+        <v>54</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-0.2</v>
+        <v>-2.3</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -862,15 +862,17 @@
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v>51</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -926,12 +928,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -941,80 +943,78 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>40.6</v>
       </c>
       <c r="G4" t="n">
         <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>37.5</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
-      </c>
-      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>45</v>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="P4" t="n">
-        <v>54</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>44</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>44</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>-2.3</v>
+        <v>-0.9</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -1038,32 +1038,32 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1073,22 +1073,26 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Kristaps Porzingis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>C</t>
@@ -1096,191 +1100,193 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>40.6</v>
+        <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>36</v>
+        <v>34.9</v>
       </c>
       <c r="H5" t="n">
-        <v>37.5</v>
+        <v>33.1</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>35</v>
-      </c>
-      <c r="R5" t="n">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>-0.9</v>
+        <v>0.2</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>NOP</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="G6" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="H6" t="n">
-        <v>35.9</v>
+        <v>31.2</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="O6" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P6" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="n">
-        <v>21</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1288,7 +1294,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1299,7 +1305,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1308,7 +1314,7 @@
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1337,7 +1343,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1347,7 +1353,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1357,17 +1363,17 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHX</t>
         </is>
       </c>
     </row>
@@ -1390,16 +1396,16 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>28.4</v>
+        <v>24.2</v>
       </c>
       <c r="G7" t="n">
-        <v>32.3</v>
+        <v>33.2</v>
       </c>
       <c r="H7" t="n">
         <v>31.5</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -1408,27 +1414,27 @@
         <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
+      <c r="N7" t="n">
+        <v>34</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
         <v>22</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>15</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>21</v>
-      </c>
-      <c r="R7" t="n">
-        <v>29</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1522,59 +1528,59 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>23.4</v>
+        <v>28.8</v>
       </c>
       <c r="G8" t="n">
-        <v>31.9</v>
+        <v>33.1</v>
       </c>
       <c r="H8" t="n">
-        <v>30.7</v>
+        <v>35.4</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="n">
-        <v>45</v>
-      </c>
       <c r="O8" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="P8" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q8" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="R8" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1582,7 +1588,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1593,7 +1599,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1602,7 +1608,7 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1631,7 +1637,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1641,7 +1647,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1651,95 +1657,95 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CLE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>34.4</v>
+        <v>41</v>
       </c>
       <c r="G9" t="n">
-        <v>30.9</v>
+        <v>32.9</v>
       </c>
       <c r="H9" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="O9" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="P9" t="n">
         <v>36</v>
       </c>
       <c r="Q9" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R9" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1748,25 +1754,23 @@
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD9" t="n">
+        <v>42</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1775,17 +1779,17 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1795,7 +1799,7 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -1805,7 +1809,7 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>ORL</t>
         </is>
       </c>
     </row>
@@ -1828,16 +1832,16 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>29.8</v>
       </c>
       <c r="G10" t="n">
-        <v>30.4</v>
+        <v>31.4</v>
       </c>
       <c r="H10" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
@@ -1846,29 +1850,29 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
+        <v>37</v>
+      </c>
+      <c r="O10" t="n">
         <v>24</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>37</v>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R10" t="n">
-        <v>18</v>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1960,59 +1964,59 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>36.6</v>
+        <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>30.1</v>
+        <v>31.1</v>
       </c>
       <c r="H11" t="n">
-        <v>26.4</v>
+        <v>31.3</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="O11" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="R11" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -2020,7 +2024,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2031,7 +2035,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2040,17 +2044,15 @@
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>39</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2069,7 +2071,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2079,7 +2081,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2089,7 +2091,7 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -2099,104 +2101,104 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>39.6</v>
+        <v>36.6</v>
       </c>
       <c r="G12" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="H12" t="n">
-        <v>31.3</v>
+        <v>26.4</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
+        <v>50</v>
+      </c>
+      <c r="O12" t="n">
+        <v>35</v>
+      </c>
+      <c r="P12" t="n">
         <v>7</v>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>35</v>
-      </c>
-      <c r="O12" t="n">
-        <v>36</v>
-      </c>
-      <c r="P12" t="n">
-        <v>56</v>
-      </c>
       <c r="Q12" t="n">
-        <v>32</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="R12" t="n">
+        <v>74</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>-0.2</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v>42</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2215,37 +2217,37 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
           <t>IND</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>ORL</t>
         </is>
       </c>
     </row>
@@ -2268,16 +2270,16 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>30.8</v>
+        <v>32.6</v>
       </c>
       <c r="G13" t="n">
-        <v>28.8</v>
+        <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2289,30 +2291,30 @@
         <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
+        <v>45</v>
+      </c>
+      <c r="O13" t="n">
         <v>18</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>32</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>37</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>31</v>
       </c>
-      <c r="R13" t="n">
-        <v>36</v>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2414,16 +2416,16 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="G14" t="n">
-        <v>28.7</v>
+        <v>29.8</v>
       </c>
       <c r="H14" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
@@ -2432,37 +2434,37 @@
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
+        <v>39</v>
+      </c>
+      <c r="O14" t="n">
         <v>19</v>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>17</v>
       </c>
-      <c r="R14" t="n">
-        <v>16</v>
-      </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2478,21 +2480,19 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z14" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
         <v>37</v>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -2548,12 +2548,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2564,77 +2564,71 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>22.8</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="H15" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>38</v>
+      </c>
+      <c r="O15" t="n">
+        <v>23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>32</v>
+      </c>
+      <c r="R15" t="n">
         <v>33</v>
       </c>
-      <c r="O15" t="n">
-        <v>42</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -2663,7 +2657,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -2673,7 +2667,7 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2683,17 +2677,17 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAL</t>
         </is>
       </c>
     </row>
@@ -2846,12 +2840,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2862,71 +2856,75 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>26.6</v>
+        <v>29.2</v>
       </c>
       <c r="G17" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O17" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="P17" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>33</v>
-      </c>
-      <c r="R17" t="n">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -2955,7 +2953,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -2965,7 +2963,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -2975,36 +2973,32 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Andrew Wiggins</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>F</t>
@@ -3012,75 +3006,71 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>17.2</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>22.8</v>
+        <v>21.4</v>
       </c>
       <c r="H18" t="n">
-        <v>27.7</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N18" t="n">
+        <v>42</v>
+      </c>
+      <c r="O18" t="n">
+        <v>9</v>
       </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R18" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -3109,7 +3099,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3119,17 +3109,17 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -3139,19 +3129,19 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Gordon Hayward</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -3162,22 +3152,22 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>18.8</v>
+        <v>13.6</v>
       </c>
       <c r="G19" t="n">
-        <v>19.9</v>
+        <v>9.4</v>
       </c>
       <c r="H19" t="n">
-        <v>17.6</v>
+        <v>18.4</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3186,47 +3176,47 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>14</v>
+      </c>
+      <c r="O19" t="n">
         <v>9</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q19" t="n">
         <v>19</v>
       </c>
-      <c r="P19" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>26</v>
-      </c>
       <c r="R19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>-1.2</v>
+        <v>0.5</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -3255,7 +3245,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3265,86 +3255,96 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHX</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Donovan Mitchell</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>12.6</v>
+        <v>23.6</v>
       </c>
       <c r="G20" t="n">
-        <v>9.699999999999999</v>
+        <v>38.9</v>
       </c>
       <c r="H20" t="n">
-        <v>18.6</v>
+        <v>38.8</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q20" t="n">
         <v>15</v>
       </c>
-      <c r="R20" t="n">
-        <v>9</v>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>0.3</v>
+        <v>-4.5</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3363,16 +3363,18 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z20" t="n">
-        <v>37</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -3401,27 +3403,27 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
@@ -3431,7 +3433,7 @@
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHI</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3445,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3453,44 +3455,48 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>23.6</v>
+        <v>32.4</v>
       </c>
       <c r="G21" t="n">
-        <v>38.9</v>
+        <v>33.3</v>
       </c>
       <c r="H21" t="n">
-        <v>38.8</v>
+        <v>32.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
       </c>
       <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O21" t="n">
-        <v>12</v>
-      </c>
-      <c r="P21" t="n">
-        <v>15</v>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -3508,7 +3514,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>-4.5</v>
+        <v>2.2</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3596,12 +3602,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3616,28 +3622,28 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>32.4</v>
+        <v>27.8</v>
       </c>
       <c r="G22" t="n">
-        <v>33.3</v>
+        <v>31.1</v>
       </c>
       <c r="H22" t="n">
-        <v>32.2</v>
+        <v>35</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -3666,22 +3672,22 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>-2.2</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3716,12 +3722,12 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -3731,7 +3737,7 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -3741,7 +3747,7 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
@@ -3751,19 +3757,19 @@
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3773,30 +3779,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>27.8</v>
+        <v>32</v>
       </c>
       <c r="G23" t="n">
-        <v>31.1</v>
+        <v>30.3</v>
       </c>
       <c r="H23" t="n">
-        <v>35</v>
+        <v>27.4</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -3821,10 +3827,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R23" t="n">
+        <v>42</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3832,7 +3836,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>-2.2</v>
+        <v>0.3</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3843,28 +3847,24 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>35</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>8</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -3878,12 +3878,12 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -3893,17 +3893,17 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
@@ -3913,19 +3913,19 @@
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3940,25 +3940,25 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>30.3</v>
+        <v>26.3</v>
       </c>
       <c r="H24" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -3978,8 +3978,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q24" t="n">
-        <v>42</v>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -3992,7 +3994,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -4003,7 +4005,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -4012,15 +4014,17 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB24" t="n">
-        <v>8</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4034,54 +4038,54 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4096,25 +4100,25 @@
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>17.2</v>
       </c>
       <c r="G25" t="n">
-        <v>26.3</v>
+        <v>22.8</v>
       </c>
       <c r="H25" t="n">
         <v>27.7</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -4134,72 +4138,70 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q25" t="n">
+        <v>25</v>
       </c>
       <c r="R25" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.9</v>
+        <v>-1</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
           <t>LAC</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
       <c r="AG25" t="inlineStr">
         <is>
           <t>@</t>
@@ -4207,17 +4209,17 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
@@ -4227,7 +4229,7 @@
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
     </row>
